--- a/20241029进度.xlsx
+++ b/20241029进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFBC12F-73F7-4F28-8336-09B7563E673C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A608A3AF-7F7C-47E5-B533-62C7268C0833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LEVIR（已解压）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ITC_VD（access??）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +156,10 @@
   </si>
   <si>
     <t>FAIR1M【tiff标注不是bndbox,框是菱形,已得xmin xmax ymin ymax】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVIR（已转yolo）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,6 +376,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,9 +386,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +671,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,7 +694,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -706,17 +706,17 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -729,16 +729,16 @@
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="15"/>
@@ -750,12 +750,12 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="15"/>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -767,80 +767,79 @@
       <c r="C6" s="3"/>
       <c r="D6" s="15"/>
       <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="24" t="s">
-        <v>17</v>
+      <c r="B7" s="21" t="s">
+        <v>16</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="15"/>
       <c r="E7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="22"/>
+      <c r="A8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="15"/>
       <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="15"/>
       <c r="E9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="15"/>
       <c r="E10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="14"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="15"/>
@@ -849,23 +848,23 @@
     </row>
     <row r="16" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="18">
         <v>45371</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H16" s="17"/>
     </row>
